--- a/data/menu_list.xlsx
+++ b/data/menu_list.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>

--- a/data/menu_list.xlsx
+++ b/data/menu_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>486fa33a-7628-4421-babb-8c3527b50c79</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
 </sst>
 </file>
@@ -678,7 +681,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>

--- a/data/menu_list.xlsx
+++ b/data/menu_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -257,6 +257,15 @@
   </si>
   <si>
     <t>3.8</t>
+  </si>
+  <si>
+    <t>04e97c9d-4c19-4a1a-9046-b975f194ac6a</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>fresh burger</t>
   </si>
 </sst>
 </file>
@@ -873,8 +882,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>

--- a/data/menu_list.xlsx
+++ b/data/menu_list.xlsx
@@ -644,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -684,16 +684,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -702,205 +702,120 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>78</v>
-      </c>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
@@ -909,7 +824,7 @@
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
@@ -924,7 +839,7 @@
       <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
@@ -942,7 +857,7 @@
       <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
@@ -957,7 +872,7 @@
       <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3"/>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
@@ -1020,7 +935,7 @@
       <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
+      <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
@@ -1035,7 +950,7 @@
       <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
@@ -1063,21 +978,6 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/data/menu_list.xlsx
+++ b/data/menu_list.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>fresh burger</t>
+  </si>
+  <si>
+    <t>Cole slaw</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -727,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
